--- a/优化Product.xlsx
+++ b/优化Product.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\OfferPlus\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1587B425-9A96-43D5-9BD0-613C23C24D63}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7356" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="页面说明" sheetId="9" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="260">
   <si>
     <t>优先级</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -584,14 +585,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>by time列表操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>by tag列表操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>查看产品详情</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -685,10 +678,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>by supplier列表操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>移除supplier</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -754,9 +743,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>by member列表操作</t>
-  </si>
-  <si>
     <t>点击delete删除成功，列表中此member，下方member（如果有）顶上来</t>
   </si>
   <si>
@@ -801,10 +787,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tag下product list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>空态页</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -890,13 +872,267 @@
   </si>
   <si>
     <t>*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击搜索栏进入搜索页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>select模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面展示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击右上角select按钮进入select模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此supplier下没有产品</t>
+  </si>
+  <si>
+    <t>点击supplier列表中某个没有产品的supplier进入这个supplier的产品列表</t>
+  </si>
+  <si>
+    <t>返回按钮+supplier name标题+空态图标+空态暗文+禁用select按钮</t>
+  </si>
+  <si>
+    <t>此supplier下有产品</t>
+  </si>
+  <si>
+    <t>点击supplier列表中某个有产品的supplier进入这个supplier的产品列表</t>
+  </si>
+  <si>
+    <t>返回按钮+supplier name标题+搜索栏+产品列表（同by time列表）*</t>
+  </si>
+  <si>
+    <t>批量分享</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量移除tag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量删除产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此tag下有产品，并进入select模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、有选中产品后，分享按钮激活
+2、点击分享按钮调出第三方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种第三方能分享成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、有选中产品后，移除按钮激活
+2、点击移除按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接移除成功，此tag的产品列表刷新，刚才选中的产品被移除，但在by time列表中还存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、有选中产品后，删除按钮激活
+2、点击删除按钮，出现确认弹窗
+3、点击确认按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除成功，此tag的产品列表刷新，刚才选中的产品被移除，在by time列表中也不存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量添加tag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看产品性情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击该tag列表下的某个产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入详情页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空态页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看产品详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>by time列表非空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击by time列表中某个产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入其详情页*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、有选中产品后，添加tag按钮激活
+2、点击添加tag按钮进入by tag列表
+3、点击目标tag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回到上页，所选产品显示添加所选tag，添加的tag跟在原来的tag后面。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>by supplier某个人的产品列表非空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击by supplier列表中某个supplier的某个产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>by tag二级页面的搜索页非空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击by tag二级页面的搜索页中某个产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>by supplier二级页面的select模式下非空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>by supplier二级页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>by member二级页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>by tag二级页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>by time一级页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此member下有产品</t>
+  </si>
+  <si>
+    <t>点击member列表中某个有产品的member进入这个member的产品列表</t>
+  </si>
+  <si>
+    <t>返回按钮+member name标题+搜索栏+产品列表（同by time列表）*</t>
+  </si>
+  <si>
+    <t>by member某个人的产品列表非空</t>
+  </si>
+  <si>
+    <t>点击by member列表中某个member的某个产品</t>
+  </si>
+  <si>
+    <t>by member二级页面的select模式下非空</t>
+  </si>
+  <si>
+    <t>此member下有产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此member被封禁或删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击member列表中某个有产品的member进入这个member的产品列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示member no longer exists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>by time一级页面操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>by tag一级页面操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>by supplier一级页面操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>by member一级页面操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用编辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左划某个产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无编辑按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无删除按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copy产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左划某个产品，点击出现的Copy按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此member下有产品，并进入select模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量copy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1060,7 +1296,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1112,10 +1348,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1127,10 +1360,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_Sheet2" xfId="1"/>
+    <cellStyle name="常规_Sheet2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1778,7 +2017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -2084,12 +2323,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J717"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J726"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2117,10 +2356,10 @@
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="15" t="s">
         <v>7</v>
       </c>
@@ -2140,13 +2379,13 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>67</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -2164,9 +2403,9 @@
     <row r="3" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="12" t="s">
         <v>76</v>
       </c>
@@ -2182,9 +2421,9 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="12" t="s">
         <v>77</v>
       </c>
@@ -2200,15 +2439,15 @@
     <row r="5" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12" t="s">
         <v>73</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -2216,15 +2455,15 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
@@ -2232,15 +2471,15 @@
     <row r="7" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12" t="s">
         <v>70</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -2248,15 +2487,15 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
         <v>71</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -2264,15 +2503,15 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12" t="s">
         <v>72</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -2280,9 +2519,9 @@
     <row r="10" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="12" t="s">
         <v>86</v>
       </c>
@@ -2298,9 +2537,9 @@
     <row r="11" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="12" t="s">
         <v>85</v>
       </c>
@@ -2316,9 +2555,9 @@
     <row r="12" spans="1:10" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="12" t="s">
         <v>87</v>
       </c>
@@ -2334,9 +2573,9 @@
     <row r="13" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="19" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18" t="s">
         <v>88</v>
       </c>
       <c r="F13" s="12" t="s">
@@ -2354,9 +2593,9 @@
     <row r="14" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="12" t="s">
         <v>91</v>
       </c>
@@ -2372,9 +2611,9 @@
     <row r="15" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="12" t="s">
         <v>94</v>
       </c>
@@ -2390,9 +2629,9 @@
     <row r="16" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>98</v>
@@ -2410,11 +2649,11 @@
     <row r="17" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="19" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>67</v>
       </c>
       <c r="F17" s="12" t="s">
@@ -2432,9 +2671,9 @@
     <row r="18" spans="1:10" ht="78" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="12" t="s">
         <v>101</v>
       </c>
@@ -2450,9 +2689,9 @@
     <row r="19" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="12" t="s">
         <v>102</v>
       </c>
@@ -2468,15 +2707,15 @@
     <row r="20" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12" t="s">
         <v>73</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -2484,15 +2723,15 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12" t="s">
         <v>69</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -2500,15 +2739,15 @@
     <row r="22" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12" t="s">
         <v>70</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -2516,15 +2755,15 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12" t="s">
         <v>71</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -2532,15 +2771,15 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12" t="s">
         <v>72</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -2548,9 +2787,9 @@
     <row r="25" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="12" t="s">
         <v>108</v>
       </c>
@@ -2566,8 +2805,8 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="12" t="s">
         <v>116</v>
       </c>
@@ -2586,8 +2825,8 @@
     <row r="27" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="12" t="s">
         <v>117</v>
       </c>
@@ -2606,8 +2845,8 @@
     <row r="28" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="12" t="s">
         <v>120</v>
       </c>
@@ -2626,8 +2865,8 @@
     <row r="29" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="5" t="s">
         <v>119</v>
       </c>
@@ -2646,9 +2885,9 @@
     <row r="30" spans="1:10" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="19" t="s">
-        <v>126</v>
+      <c r="C30" s="19"/>
+      <c r="D30" s="18" t="s">
+        <v>247</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>110</v>
@@ -2668,8 +2907,8 @@
     <row r="31" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="12" t="s">
         <v>105</v>
       </c>
@@ -2688,8 +2927,8 @@
     <row r="32" spans="1:10" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="12" t="s">
         <v>106</v>
       </c>
@@ -2708,19 +2947,19 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>100</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
@@ -2728,9 +2967,9 @@
     <row r="34" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="19" t="s">
-        <v>127</v>
+      <c r="C34" s="19"/>
+      <c r="D34" s="18" t="s">
+        <v>248</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>115</v>
@@ -2739,10 +2978,10 @@
         <v>101</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
@@ -2750,19 +2989,19 @@
     <row r="35" spans="1:10" ht="78" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>101</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
@@ -2770,19 +3009,19 @@
     <row r="36" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="G36" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="G36" s="12" t="s">
-        <v>135</v>
-      </c>
       <c r="H36" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
@@ -2790,19 +3029,19 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
       <c r="E37" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>134</v>
-      </c>
       <c r="H37" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
@@ -2810,19 +3049,19 @@
     <row r="38" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
       <c r="E38" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F38" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>141</v>
-      </c>
       <c r="H38" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
@@ -2830,19 +3069,19 @@
     <row r="39" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
       <c r="E39" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="H39" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
@@ -2850,19 +3089,19 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
@@ -2870,21 +3109,21 @@
     <row r="41" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="19" t="s">
-        <v>149</v>
+      <c r="C41" s="19"/>
+      <c r="D41" s="18" t="s">
+        <v>249</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
@@ -2892,19 +3131,19 @@
     <row r="42" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
       <c r="E42" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
@@ -2912,19 +3151,19 @@
     <row r="43" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
       <c r="E43" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
@@ -2932,19 +3171,19 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
@@ -2952,21 +3191,21 @@
     <row r="45" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="19" t="s">
-        <v>165</v>
+      <c r="C45" s="19"/>
+      <c r="D45" s="18" t="s">
+        <v>250</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
@@ -2974,19 +3213,19 @@
     <row r="46" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
       <c r="E46" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
@@ -2994,19 +3233,19 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
@@ -3014,23 +3253,23 @@
     <row r="48" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>178</v>
+      <c r="C48" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>221</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
@@ -3038,41 +3277,45 @@
     <row r="49" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
+      <c r="C49" s="12" t="s">
+        <v>235</v>
+      </c>
       <c r="D49" s="12" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
+      <c r="D50" s="12" t="s">
+        <v>178</v>
+      </c>
       <c r="E50" s="12" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
@@ -3083,16 +3326,16 @@
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
@@ -3103,16 +3346,16 @@
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
@@ -3122,10 +3365,18 @@
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
+      <c r="E53" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>190</v>
+      </c>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
     </row>
@@ -3134,10 +3385,18 @@
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
+      <c r="E54" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>191</v>
+      </c>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
     </row>
@@ -3146,10 +3405,18 @@
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
+      <c r="E55" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
     </row>
@@ -3158,10 +3425,18 @@
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="E56" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>225</v>
+      </c>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
     </row>
@@ -3169,11 +3444,21 @@
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
+      <c r="D57" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
     </row>
@@ -3182,46 +3467,78 @@
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
+      <c r="E58" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
+      <c r="E59" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>212</v>
+      </c>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
+      <c r="E60" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>214</v>
+      </c>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
+      <c r="E61" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>216</v>
+      </c>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
     </row>
@@ -3230,34 +3547,64 @@
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
+      <c r="E62" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>225</v>
+      </c>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
+      <c r="C63" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>203</v>
+      </c>
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
+      <c r="D64" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>206</v>
+      </c>
       <c r="I64" s="12"/>
       <c r="J64" s="12"/>
     </row>
@@ -3266,10 +3613,18 @@
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
+      <c r="E65" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>114</v>
+      </c>
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
     </row>
@@ -3278,10 +3633,18 @@
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
+      <c r="E66" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
     </row>
@@ -3290,10 +3653,18 @@
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
+      <c r="E67" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>191</v>
+      </c>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
     </row>
@@ -3302,22 +3673,38 @@
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
+      <c r="E68" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
+      <c r="E69" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>225</v>
+      </c>
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
     </row>
@@ -3325,11 +3712,21 @@
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
+      <c r="D70" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
     </row>
@@ -3338,82 +3735,140 @@
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
+      <c r="E71" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
+      <c r="E72" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>212</v>
+      </c>
       <c r="I72" s="12"/>
       <c r="J72" s="12"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
+      <c r="E73" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>227</v>
+      </c>
       <c r="I73" s="12"/>
       <c r="J73" s="12"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
+      <c r="E74" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>216</v>
+      </c>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
+      <c r="E75" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>225</v>
+      </c>
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
+      <c r="C76" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>239</v>
+      </c>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
     </row>
@@ -3422,10 +3877,18 @@
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
+      <c r="E78" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
     </row>
@@ -3434,10 +3897,18 @@
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
+      <c r="E79" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="I79" s="12"/>
       <c r="J79" s="12"/>
     </row>
@@ -3446,10 +3917,18 @@
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
+      <c r="E80" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>255</v>
+      </c>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
     </row>
@@ -3458,9 +3937,15 @@
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
+      <c r="E81" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>257</v>
+      </c>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
@@ -3470,22 +3955,38 @@
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
+      <c r="E82" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
+      <c r="E83" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>225</v>
+      </c>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
     </row>
@@ -3493,11 +3994,21 @@
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
+      <c r="D84" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
     </row>
@@ -3506,22 +4017,38 @@
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
+      <c r="E85" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
+      <c r="E86" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>212</v>
+      </c>
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
     </row>
@@ -3530,22 +4057,32 @@
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
+      <c r="E87" s="12" t="s">
+        <v>259</v>
+      </c>
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
+      <c r="E88" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>225</v>
+      </c>
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
     </row>
@@ -11086,25 +11623,134 @@
       <c r="J716" s="12"/>
     </row>
     <row r="717" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A717" s="12"/>
+      <c r="B717" s="12"/>
+      <c r="C717" s="12"/>
+      <c r="D717" s="12"/>
+      <c r="E717" s="12"/>
+      <c r="F717" s="12"/>
       <c r="G717" s="12"/>
+      <c r="H717" s="12"/>
+      <c r="I717" s="12"/>
+      <c r="J717" s="12"/>
+    </row>
+    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A718" s="12"/>
+      <c r="B718" s="12"/>
+      <c r="C718" s="12"/>
+      <c r="D718" s="12"/>
+      <c r="E718" s="12"/>
+      <c r="F718" s="12"/>
+      <c r="G718" s="12"/>
+      <c r="H718" s="12"/>
+      <c r="I718" s="12"/>
+      <c r="J718" s="12"/>
+    </row>
+    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A719" s="12"/>
+      <c r="B719" s="12"/>
+      <c r="C719" s="12"/>
+      <c r="D719" s="12"/>
+      <c r="E719" s="12"/>
+      <c r="F719" s="12"/>
+      <c r="G719" s="12"/>
+      <c r="H719" s="12"/>
+      <c r="I719" s="12"/>
+      <c r="J719" s="12"/>
+    </row>
+    <row r="720" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A720" s="12"/>
+      <c r="B720" s="12"/>
+      <c r="C720" s="12"/>
+      <c r="D720" s="12"/>
+      <c r="E720" s="12"/>
+      <c r="F720" s="12"/>
+      <c r="G720" s="12"/>
+      <c r="H720" s="12"/>
+      <c r="I720" s="12"/>
+      <c r="J720" s="12"/>
+    </row>
+    <row r="721" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A721" s="12"/>
+      <c r="B721" s="12"/>
+      <c r="C721" s="12"/>
+      <c r="D721" s="12"/>
+      <c r="E721" s="12"/>
+      <c r="F721" s="12"/>
+      <c r="G721" s="12"/>
+      <c r="H721" s="12"/>
+      <c r="I721" s="12"/>
+      <c r="J721" s="12"/>
+    </row>
+    <row r="722" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A722" s="12"/>
+      <c r="B722" s="12"/>
+      <c r="C722" s="12"/>
+      <c r="D722" s="12"/>
+      <c r="E722" s="12"/>
+      <c r="F722" s="12"/>
+      <c r="G722" s="12"/>
+      <c r="H722" s="12"/>
+      <c r="I722" s="12"/>
+      <c r="J722" s="12"/>
+    </row>
+    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A723" s="12"/>
+      <c r="B723" s="12"/>
+      <c r="C723" s="12"/>
+      <c r="D723" s="12"/>
+      <c r="E723" s="12"/>
+      <c r="F723" s="12"/>
+      <c r="G723" s="12"/>
+      <c r="H723" s="12"/>
+      <c r="I723" s="12"/>
+      <c r="J723" s="12"/>
+    </row>
+    <row r="724" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A724" s="12"/>
+      <c r="B724" s="12"/>
+      <c r="C724" s="12"/>
+      <c r="D724" s="12"/>
+      <c r="E724" s="12"/>
+      <c r="F724" s="12"/>
+      <c r="G724" s="12"/>
+      <c r="H724" s="12"/>
+      <c r="I724" s="12"/>
+      <c r="J724" s="12"/>
+    </row>
+    <row r="725" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A725" s="12"/>
+      <c r="B725" s="12"/>
+      <c r="C725" s="12"/>
+      <c r="D725" s="12"/>
+      <c r="E725" s="12"/>
+      <c r="F725" s="12"/>
+      <c r="G725" s="12"/>
+      <c r="H725" s="12"/>
+      <c r="I725" s="12"/>
+      <c r="J725" s="12"/>
+    </row>
+    <row r="726" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G726" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D34:D40"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="C2:C47"/>
+  <mergeCells count="12">
+    <mergeCell ref="E76:E77"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:D15"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="E2:E12"/>
     <mergeCell ref="D17:D29"/>
     <mergeCell ref="E17:E25"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D34:D40"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="C2:C47"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11114,13 +11760,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J708"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H10" sqref="H10"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11148,10 +11794,10 @@
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="17"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
@@ -19658,7 +20304,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
